--- a/sector_breakdown/Transport/Shipping files.xlsx
+++ b/sector_breakdown/Transport/Shipping files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/EEMsection/Delte dokumenter/General/PtXMarkets/Carmen's work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/sector_breakdown/Transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{82125456-80CA-40ED-BBA2-F9667CFFB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3705978-CA53-47F9-B2DF-63B013F886D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ABBE57A9-E82C-4941-A978-4E6DD40950D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABBE57A9-E82C-4941-A978-4E6DD40950D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy con. national nav." sheetId="1" r:id="rId1"/>
@@ -25,8 +25,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1005,7 +1003,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2388,7 +2386,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3683,7 +3681,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4882,7 +4880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21311,7 +21309,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>1990</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22327,464 +22331,10 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="Structure"/>
-      <sheetName val="Sheet 1"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Sheet 3"/>
-      <sheetName val="Sheet 4"/>
-      <sheetName val="Sheet 5"/>
-      <sheetName val="Sheet 6"/>
-      <sheetName val="Sheet 7"/>
-      <sheetName val="Total"/>
-      <sheetName val="Road"/>
-      <sheetName val="Rail"/>
-      <sheetName val="Aviation"/>
-      <sheetName val="Navigation"/>
-      <sheetName val="FORECAST"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="13">
-          <cell r="B13">
-            <v>60.67</v>
-          </cell>
-          <cell r="C13">
-            <v>20.332000000000001</v>
-          </cell>
-          <cell r="D13">
-            <v>12.954000000000001</v>
-          </cell>
-          <cell r="E13">
-            <v>6.2590000000000003</v>
-          </cell>
-          <cell r="F13">
-            <v>0</v>
-          </cell>
-          <cell r="G13">
-            <v>6.1020000000000003</v>
-          </cell>
-          <cell r="H13">
-            <v>6.6529999999999996</v>
-          </cell>
-          <cell r="I13">
-            <v>0</v>
-          </cell>
-          <cell r="J13">
-            <v>0</v>
-          </cell>
-          <cell r="K13">
-            <v>0</v>
-          </cell>
-          <cell r="L13">
-            <v>0</v>
-          </cell>
-          <cell r="M13">
-            <v>0</v>
-          </cell>
-          <cell r="N13">
-            <v>0</v>
-          </cell>
-          <cell r="O13">
-            <v>0</v>
-          </cell>
-          <cell r="P13">
-            <v>0</v>
-          </cell>
-          <cell r="Q13">
-            <v>0</v>
-          </cell>
-          <cell r="R13">
-            <v>0</v>
-          </cell>
-          <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>0</v>
-          </cell>
-          <cell r="U13">
-            <v>0</v>
-          </cell>
-          <cell r="V13">
-            <v>0</v>
-          </cell>
-          <cell r="W13">
-            <v>0</v>
-          </cell>
-          <cell r="X13">
-            <v>0</v>
-          </cell>
-          <cell r="Y13">
-            <v>0</v>
-          </cell>
-          <cell r="Z13">
-            <v>0</v>
-          </cell>
-          <cell r="AA13">
-            <v>0</v>
-          </cell>
-          <cell r="AB13">
-            <v>0</v>
-          </cell>
-          <cell r="AC13">
-            <v>0</v>
-          </cell>
-          <cell r="AD13">
-            <v>0</v>
-          </cell>
-          <cell r="AE13">
-            <v>0</v>
-          </cell>
-          <cell r="AF13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>60375.557999999997</v>
-          </cell>
-          <cell r="C16">
-            <v>62342.067000000003</v>
-          </cell>
-          <cell r="D16">
-            <v>62661.73</v>
-          </cell>
-          <cell r="E16">
-            <v>60007.631000000001</v>
-          </cell>
-          <cell r="F16">
-            <v>61439.495000000003</v>
-          </cell>
-          <cell r="G16">
-            <v>59140.786</v>
-          </cell>
-          <cell r="H16">
-            <v>64457.163</v>
-          </cell>
-          <cell r="I16">
-            <v>62425.201999999997</v>
-          </cell>
-          <cell r="J16">
-            <v>62926.656000000003</v>
-          </cell>
-          <cell r="K16">
-            <v>68100.523000000001</v>
-          </cell>
-          <cell r="L16">
-            <v>60641.046999999999</v>
-          </cell>
-          <cell r="M16">
-            <v>62491.057999999997</v>
-          </cell>
-          <cell r="N16">
-            <v>61982.241000000002</v>
-          </cell>
-          <cell r="O16">
-            <v>65261.332000000002</v>
-          </cell>
-          <cell r="P16">
-            <v>66336.467000000004</v>
-          </cell>
-          <cell r="Q16">
-            <v>65025.36</v>
-          </cell>
-          <cell r="R16">
-            <v>66660.607000000004</v>
-          </cell>
-          <cell r="S16">
-            <v>64991.856</v>
-          </cell>
-          <cell r="T16">
-            <v>63811.601999999999</v>
-          </cell>
-          <cell r="U16">
-            <v>61712.773000000001</v>
-          </cell>
-          <cell r="V16">
-            <v>58525.33</v>
-          </cell>
-          <cell r="W16">
-            <v>52259.281000000003</v>
-          </cell>
-          <cell r="X16">
-            <v>50611.322</v>
-          </cell>
-          <cell r="Y16">
-            <v>45915.665000000001</v>
-          </cell>
-          <cell r="Z16">
-            <v>42493.873</v>
-          </cell>
-          <cell r="AA16">
-            <v>45187.286</v>
-          </cell>
-          <cell r="AB16">
-            <v>47187.644</v>
-          </cell>
-          <cell r="AC16">
-            <v>49592.777000000002</v>
-          </cell>
-          <cell r="AD16">
-            <v>48035.245000000003</v>
-          </cell>
-          <cell r="AE16">
-            <v>48991.074999999997</v>
-          </cell>
-          <cell r="AF16">
-            <v>42178.364000000001</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-          <cell r="F22">
-            <v>0</v>
-          </cell>
-          <cell r="G22">
-            <v>0</v>
-          </cell>
-          <cell r="H22">
-            <v>0</v>
-          </cell>
-          <cell r="I22">
-            <v>0</v>
-          </cell>
-          <cell r="J22">
-            <v>0</v>
-          </cell>
-          <cell r="K22">
-            <v>0</v>
-          </cell>
-          <cell r="L22">
-            <v>0</v>
-          </cell>
-          <cell r="M22">
-            <v>0</v>
-          </cell>
-          <cell r="N22">
-            <v>0.27800000000000002</v>
-          </cell>
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-          <cell r="P22">
-            <v>0</v>
-          </cell>
-          <cell r="Q22">
-            <v>0</v>
-          </cell>
-          <cell r="R22">
-            <v>0</v>
-          </cell>
-          <cell r="S22">
-            <v>0</v>
-          </cell>
-          <cell r="T22">
-            <v>14.955</v>
-          </cell>
-          <cell r="U22">
-            <v>33.167999999999999</v>
-          </cell>
-          <cell r="V22">
-            <v>25.547999999999998</v>
-          </cell>
-          <cell r="W22">
-            <v>43.381999999999998</v>
-          </cell>
-          <cell r="X22">
-            <v>43.83</v>
-          </cell>
-          <cell r="Y22">
-            <v>36.174999999999997</v>
-          </cell>
-          <cell r="Z22">
-            <v>54.08</v>
-          </cell>
-          <cell r="AA22">
-            <v>46.820999999999998</v>
-          </cell>
-          <cell r="AB22">
-            <v>90.680999999999997</v>
-          </cell>
-          <cell r="AC22">
-            <v>99.045000000000002</v>
-          </cell>
-          <cell r="AD22">
-            <v>125.49299999999999</v>
-          </cell>
-          <cell r="AE22">
-            <v>186.512</v>
-          </cell>
-          <cell r="AF22">
-            <v>215.447</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-          <cell r="D32">
-            <v>0</v>
-          </cell>
-          <cell r="E32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="G32">
-            <v>0</v>
-          </cell>
-          <cell r="H32">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>0</v>
-          </cell>
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
-          </cell>
-          <cell r="M32">
-            <v>0</v>
-          </cell>
-          <cell r="N32">
-            <v>4.4851355589468705E-4</v>
-          </cell>
-          <cell r="O32">
-            <v>0</v>
-          </cell>
-          <cell r="P32">
-            <v>0</v>
-          </cell>
-          <cell r="Q32">
-            <v>0</v>
-          </cell>
-          <cell r="R32">
-            <v>0</v>
-          </cell>
-          <cell r="S32">
-            <v>0</v>
-          </cell>
-          <cell r="T32">
-            <v>2.343068575671409E-2</v>
-          </cell>
-          <cell r="U32">
-            <v>5.371689128521015E-2</v>
-          </cell>
-          <cell r="V32">
-            <v>4.3633845360374519E-2</v>
-          </cell>
-          <cell r="W32">
-            <v>8.2944151428771415E-2</v>
-          </cell>
-          <cell r="X32">
-            <v>8.6526246590919176E-2</v>
-          </cell>
-          <cell r="Y32">
-            <v>7.8723726377958436E-2</v>
-          </cell>
-          <cell r="Z32">
-            <v>0.12710364703091592</v>
-          </cell>
-          <cell r="AA32">
-            <v>0.10350817802150929</v>
-          </cell>
-          <cell r="AB32">
-            <v>0.1918024762551872</v>
-          </cell>
-          <cell r="AC32">
-            <v>0.19931851962757655</v>
-          </cell>
-          <cell r="AD32">
-            <v>0.26057117314107603</v>
-          </cell>
-          <cell r="AE32">
-            <v>0.37926218019223801</v>
-          </cell>
-          <cell r="AF32">
-            <v>0.50820388598222777</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="Structure"/>
-      <sheetName val="Sheet 1"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Maritime Bunkers"/>
-      <sheetName val="International Aviation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>1990</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -22822,7 +22372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -22928,7 +22478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23070,7 +22620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23080,8 +22630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D87D6-C8D9-4F55-9C3E-91AC13233D93}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:AF12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25415,7 +24965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6195944-3EB2-497C-BA9A-A2581F5F9C4C}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -26873,7 +26423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB66E1AD-35E6-4A25-BD59-6AD2538F9CF2}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -31059,15 +30609,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D8331A7A67074A478E4DEB50568F0747" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a1e86bcd7b00a3670fe7f90c0152ce35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fa5a077-4a93-48a7-9217-96ff940fe088" xmlns:ns3="262418f3-8967-42a1-91f5-8aa137fbcf65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fd4310cff1c0468adc12803bd0fadfe" ns2:_="" ns3:_="">
     <xsd:import namespace="1fa5a077-4a93-48a7-9217-96ff940fe088"/>
@@ -31284,6 +30825,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDE9FED-8F08-4E33-A48C-CBFCA6AE371C}">
   <ds:schemaRefs>
@@ -31302,14 +30852,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6627C1-4CA1-4047-A3DE-23850DDCAA63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1D3D9CB-EC6C-4E90-ACB3-176FD8FE0789}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31326,4 +30868,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6627C1-4CA1-4047-A3DE-23850DDCAA63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>